--- a/output/fit_clients/fit_round_221.xlsx
+++ b/output/fit_clients/fit_round_221.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1638422564.795165</v>
+        <v>1694291060.183107</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07321693827942273</v>
+        <v>0.1139077818161542</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04246368241599798</v>
+        <v>0.0330741881707713</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>819211229.3919287</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2151138936.988195</v>
+        <v>2047543783.554585</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1448516384708374</v>
+        <v>0.1589623961617382</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03856360839346584</v>
+        <v>0.03103925678713386</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1075569531.945052</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4417956992.756114</v>
+        <v>4710638749.320607</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1350601524336899</v>
+        <v>0.1481456110394089</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02777982844696361</v>
+        <v>0.02549950466116991</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>80</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2208978540.145296</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2826337774.083364</v>
+        <v>3196809343.849715</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09661155426615506</v>
+        <v>0.08589648219527625</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04665487023284905</v>
+        <v>0.04531407045591201</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>85</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1413168968.401284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1920767632.768323</v>
+        <v>2431558376.88307</v>
       </c>
       <c r="F6" t="n">
-        <v>0.105391882366425</v>
+        <v>0.1363103342608276</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04726637752968645</v>
+        <v>0.03605323961100047</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>38</v>
-      </c>
-      <c r="J6" t="n">
-        <v>960383854.5360204</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2538071621.153464</v>
+        <v>3141153605.25311</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06265687352595896</v>
+        <v>0.07018978040689482</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03399017648298926</v>
+        <v>0.03095014086609447</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>68</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1269035819.972497</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3154347154.001729</v>
+        <v>2637399057.163916</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1496463948860488</v>
+        <v>0.1499511833919004</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0231450184868717</v>
+        <v>0.02484601121850054</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>72</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1577173650.278357</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1842407636.038942</v>
+        <v>1460730980.093956</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1317865148188873</v>
+        <v>0.1350295247274455</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0324371487563627</v>
+        <v>0.03212148147924784</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>921203866.4679949</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4365398773.844904</v>
+        <v>4246949998.720585</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1912772930552406</v>
+        <v>0.2045948856230536</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04184021186611257</v>
+        <v>0.04630309286503093</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>93</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2182699437.115591</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3492964383.753346</v>
+        <v>3545403667.014446</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1834725923189348</v>
+        <v>0.1403055426454356</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03126061827844272</v>
+        <v>0.04464879841148616</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>91</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1746482169.224712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2051156789.373852</v>
+        <v>2807858872.241817</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1690071875823496</v>
+        <v>0.1943022457921214</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04357400361171566</v>
+        <v>0.04686055873157174</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>77</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1025578325.776606</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3753659448.527865</v>
+        <v>4279392349.236619</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09793410068959101</v>
+        <v>0.1020103188491735</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0260951211119489</v>
+        <v>0.02021973411454632</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>74</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1876829791.682859</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3862741562.527635</v>
+        <v>3560249112.735404</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1341261483860757</v>
+        <v>0.1797376810808694</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02920218952504524</v>
+        <v>0.03343880236591469</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>70</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1931370753.215808</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1730433665.507982</v>
+        <v>1268378180.258421</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08244381717228488</v>
+        <v>0.0714802442152479</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04897654260453523</v>
+        <v>0.04058690044625993</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>865216970.488134</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2580419739.301353</v>
+        <v>1996932094.369535</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09764927246366482</v>
+        <v>0.09583093187262788</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04407228241922303</v>
+        <v>0.04768528719142876</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>39</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1290209893.27644</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4283204261.703872</v>
+        <v>4565043902.718208</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1180289787649181</v>
+        <v>0.1730488953213599</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03294173820340862</v>
+        <v>0.03948908417101352</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>64</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2141602151.449308</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2983456601.368594</v>
+        <v>3648880689.072425</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1616014567468054</v>
+        <v>0.1702318439854563</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03017948728678039</v>
+        <v>0.02234397169820031</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>72</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1491728332.129866</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1358591433.553107</v>
+        <v>1175660219.310069</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1554620247760771</v>
+        <v>0.1608759168028396</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02027119770784576</v>
+        <v>0.01762062058243729</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>679295833.2843143</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1823119951.253374</v>
+        <v>2559768254.52392</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1161135995593272</v>
+        <v>0.1148172774844627</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02896833741008668</v>
+        <v>0.02038327590546024</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>34</v>
-      </c>
-      <c r="J20" t="n">
-        <v>911560020.7775228</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2610678800.976324</v>
+        <v>1705801459.326726</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06803946037603842</v>
+        <v>0.06896737881371152</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04478280216419189</v>
+        <v>0.03714223916970773</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>17</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1305339378.013851</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2948302390.069135</v>
+        <v>2760603601.776552</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1057801228015637</v>
+        <v>0.1428933154666525</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05602366403643447</v>
+        <v>0.04887647979033354</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>62</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1474151259.649092</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1364754632.976493</v>
+        <v>944395493.2094836</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1225484886242362</v>
+        <v>0.1211665147590749</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03425881494341425</v>
+        <v>0.04760672274218061</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>682377325.2161877</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2917342598.469103</v>
+        <v>2536992225.490332</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1257492575710983</v>
+        <v>0.09190144078721686</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0298894520683331</v>
+        <v>0.03739156910659567</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>64</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1458671340.030106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1301289263.451865</v>
+        <v>1187008896.103666</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07808593346315747</v>
+        <v>0.1111055121402142</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02714315429629241</v>
+        <v>0.02680012982847423</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>650644626.3819916</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>877104254.8467599</v>
+        <v>966013573.7280033</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09117442904430027</v>
+        <v>0.1120027467449325</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03443280051842422</v>
+        <v>0.02747798455175557</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>438552069.3800963</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4169320102.275584</v>
+        <v>4009987690.432998</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1311709211796676</v>
+        <v>0.1351839018745787</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01786108741594127</v>
+        <v>0.01994717794343576</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>52</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2084660052.863782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2366332773.616112</v>
+        <v>3293589112.469787</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1470408513428242</v>
+        <v>0.09459975084772812</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03025970773558352</v>
+        <v>0.03877983935644143</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>71</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1183166343.01588</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4340371826.772249</v>
+        <v>5143822316.111352</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1264423535469723</v>
+        <v>0.1367195772233911</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03402721587397599</v>
+        <v>0.03335874597524036</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>99</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2170185906.618472</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1662978009.334989</v>
+        <v>1530111087.953477</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1074983422615672</v>
+        <v>0.1385065781104435</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03820838670396411</v>
+        <v>0.03851574421952881</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>831489003.713235</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>982584309.8030463</v>
+        <v>1403445869.495891</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09496896080060648</v>
+        <v>0.07946618596332744</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04687383703593959</v>
+        <v>0.04935603446723399</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>491292157.5276535</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1309525463.886776</v>
+        <v>1359160425.362187</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07287299987076908</v>
+        <v>0.09107776554786443</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03446608521482764</v>
+        <v>0.02403052555001414</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>654762760.8441137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3004307845.891057</v>
+        <v>2246828333.454341</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1563596716288483</v>
+        <v>0.2048159918034267</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04808323775106584</v>
+        <v>0.04285830039420753</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>64</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1502153918.174451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1270954543.526321</v>
+        <v>1449290257.782455</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09222396802205102</v>
+        <v>0.1082277408768206</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01804579520977168</v>
+        <v>0.01889931721049185</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>635477265.1506923</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1155152836.832621</v>
+        <v>1025906093.119941</v>
       </c>
       <c r="F35" t="n">
-        <v>0.110608093419171</v>
+        <v>0.08506285373619481</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02819995625388173</v>
+        <v>0.02718825658463652</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>577576402.9697742</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3178801208.628376</v>
+        <v>2075654697.247639</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1493991460933145</v>
+        <v>0.1443229962584791</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02579992726385334</v>
+        <v>0.02765431753014231</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>55</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1589400571.896037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2092547886.320768</v>
+        <v>2217725830.928728</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09770216414830205</v>
+        <v>0.07284104692238813</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02988784443892215</v>
+        <v>0.02724391342923232</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>57</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1046273983.194361</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1983721700.153341</v>
+        <v>1782110439.822513</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09744470859799387</v>
+        <v>0.07388606520731797</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02492463551760946</v>
+        <v>0.03310804388853902</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>991860830.9890637</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1469534794.817811</v>
+        <v>2215641369.769092</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1610646908602066</v>
+        <v>0.1560921802570277</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02951111909945095</v>
+        <v>0.03109524819666069</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>734767472.4815208</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1312076698.27403</v>
+        <v>1177754964.245494</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1011479923308484</v>
+        <v>0.1594772247333268</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05493598367435155</v>
+        <v>0.04054375949610629</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>656038362.3725648</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2318080496.751447</v>
+        <v>2242477420.920601</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1466805502512258</v>
+        <v>0.160323356270247</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04652977418071588</v>
+        <v>0.04261897647253417</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>53</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1159040291.489483</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2778946594.78043</v>
+        <v>3317893071.535678</v>
       </c>
       <c r="F42" t="n">
-        <v>0.121030288936966</v>
+        <v>0.07724888353967646</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02861305919083748</v>
+        <v>0.04144580467851878</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>79</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1389473242.619997</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3007005642.173537</v>
+        <v>1970916362.38536</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1553871308408855</v>
+        <v>0.1346016812690934</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02052653512932199</v>
+        <v>0.02433109473282655</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>76</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1503502818.760104</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1675884812.195753</v>
+        <v>1818582700.374268</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07836953398201645</v>
+        <v>0.07365184341330652</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03221547293087984</v>
+        <v>0.0261067061938721</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>837942447.7501652</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2348117746.989875</v>
+        <v>2504092871.283695</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1715151767410476</v>
+        <v>0.1469808085948344</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03861593023254127</v>
+        <v>0.0492774899104101</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1174058899.417287</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5251758031.008472</v>
+        <v>4156248178.050471</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1318776563245157</v>
+        <v>0.1727042387046035</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05904009879896843</v>
+        <v>0.04536054356006228</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>79</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2625879056.725831</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3653367303.763364</v>
+        <v>5157332926.583025</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1667238525093759</v>
+        <v>0.1436281644858403</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05863568218314607</v>
+        <v>0.04322511026485206</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>59</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1826683631.395046</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4529246701.938842</v>
+        <v>3114241748.921187</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09348251199870232</v>
+        <v>0.0895383634457692</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03225942014926267</v>
+        <v>0.03693849525327698</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>75</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2264623354.587017</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1618196118.042398</v>
+        <v>1200316052.449854</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1299372445133543</v>
+        <v>0.1942251277964584</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03250633942661401</v>
+        <v>0.02785620688792491</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>809098072.6540934</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3854584493.352623</v>
+        <v>3943084964.760625</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1477339112015782</v>
+        <v>0.1158144885317612</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03938815917018133</v>
+        <v>0.03775234587827814</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>75</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1927292245.688244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1489134743.454869</v>
+        <v>1402648867.495868</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1832495374183388</v>
+        <v>0.1336609990268347</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0467155438146682</v>
+        <v>0.04110964817338884</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>744567376.4052298</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4347871564.589334</v>
+        <v>4005295805.257853</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1179921394081677</v>
+        <v>0.1321924437134157</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04953481258157588</v>
+        <v>0.04006287505446816</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>91</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2173935818.282707</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2386903113.889781</v>
+        <v>2660348631.286736</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1495478850140326</v>
+        <v>0.1561061018453742</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02199446736841902</v>
+        <v>0.0242775897657687</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>64</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1193451631.722512</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3088456201.818362</v>
+        <v>4421013075.981435</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1571706827356884</v>
+        <v>0.119755831079778</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04989121854835941</v>
+        <v>0.0353481020807413</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>72</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1544228093.3973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3930985930.541883</v>
+        <v>3488459127.37813</v>
       </c>
       <c r="F55" t="n">
-        <v>0.156594579259065</v>
+        <v>0.1681667704451799</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02325468177200184</v>
+        <v>0.03164011803513678</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>59</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1965492937.146179</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1475412488.031966</v>
+        <v>1702433423.367776</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1054178540772199</v>
+        <v>0.1445542293343697</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05374288246528681</v>
+        <v>0.05133394514576874</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>737706289.9205606</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2976621246.444033</v>
+        <v>4289607182.28087</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1790137892596647</v>
+        <v>0.1641894249665685</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02325952668798766</v>
+        <v>0.01917175937585705</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>70</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1488310625.649101</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1868041070.781074</v>
+        <v>1252161067.114745</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1951880320659773</v>
+        <v>0.1694730949806004</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02537824132190838</v>
+        <v>0.03583176692359087</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>934020532.9403747</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3377542493.461052</v>
+        <v>4676951929.475136</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09811384555912853</v>
+        <v>0.08829136054931179</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03514195766974687</v>
+        <v>0.03272230849697959</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>60</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1688771252.668189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2375522594.262547</v>
+        <v>3327324554.045933</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2046993769795082</v>
+        <v>0.1837286687519215</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0212603754770637</v>
+        <v>0.03354140535795345</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>71</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1187761301.961573</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3154403514.144361</v>
+        <v>3205962985.898874</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1154649595140743</v>
+        <v>0.124775304113994</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02406692620552907</v>
+        <v>0.02199407142498574</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>76</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1577201722.969213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1772877058.438831</v>
+        <v>1288339434.497091</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1288768119748784</v>
+        <v>0.1940577959668335</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03230317096119479</v>
+        <v>0.04589152676376891</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>886438553.2135626</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4637204074.408964</v>
+        <v>4912604381.247105</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1075014095276123</v>
+        <v>0.08101797173128733</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04546401581056328</v>
+        <v>0.04679738893461612</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>63</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2318602071.14137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3806088363.823583</v>
+        <v>5191717231.435882</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1874095775818334</v>
+        <v>0.1162785742437234</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02888193634033756</v>
+        <v>0.0310354590691243</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>69</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1903044204.120651</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4577575564.477602</v>
+        <v>3717184782.601422</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1182237428764802</v>
+        <v>0.1666208405985848</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02828207737980005</v>
+        <v>0.0236486307169938</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>80</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2288787766.344642</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5505728386.834619</v>
+        <v>5456047420.238292</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1023786945336344</v>
+        <v>0.1346661039373184</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05102274684580504</v>
+        <v>0.04555223910203125</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>64</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2752864247.664444</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2626870535.437211</v>
+        <v>3114898194.330263</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09123579623216951</v>
+        <v>0.06834284720416908</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03238111715936877</v>
+        <v>0.05049165862121722</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>71</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1313435317.580197</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6019203424.48311</v>
+        <v>6016744385.560891</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1552747493706456</v>
+        <v>0.1151346335181091</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03838193196792519</v>
+        <v>0.04769393748605017</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>71</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3009601830.382457</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1512061615.647836</v>
+        <v>1505768986.574393</v>
       </c>
       <c r="F69" t="n">
-        <v>0.150248913259944</v>
+        <v>0.1502736390355174</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05275694356328244</v>
+        <v>0.03902040191591116</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>756030749.7056062</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2777006574.946831</v>
+        <v>2317515806.147746</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06485336585946803</v>
+        <v>0.07692508244186973</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04479548474729003</v>
+        <v>0.04265118906947728</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>63</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1388503249.944825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3515720225.979509</v>
+        <v>4348672579.456476</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1236596604309494</v>
+        <v>0.1253289345225244</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02906671780283344</v>
+        <v>0.02152949255731005</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>80</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1757860107.844054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1563429749.028339</v>
+        <v>1582097817.0626</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0658488493183467</v>
+        <v>0.08064058702087235</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04774456432543148</v>
+        <v>0.03994060804781369</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>781714891.2540581</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3385051281.646203</v>
+        <v>3414550816.012636</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08639022476686771</v>
+        <v>0.07367159161309313</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04641201080784396</v>
+        <v>0.03644268401491106</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>84</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1692525601.537875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3709449795.225741</v>
+        <v>3730706276.527416</v>
       </c>
       <c r="F74" t="n">
-        <v>0.122648821339316</v>
+        <v>0.1345864207060741</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02735598420409233</v>
+        <v>0.02948648101228487</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>75</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1854724901.684307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2146090022.147322</v>
+        <v>1840925705.858119</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1194121307273302</v>
+        <v>0.1244726026634984</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03025931560346384</v>
+        <v>0.02332644476757582</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1073044961.547878</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3479581072.987987</v>
+        <v>4538319182.168016</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1012777340377533</v>
+        <v>0.1117188214032028</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02436463556215872</v>
+        <v>0.03245249653500142</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>51</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1739790499.389898</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1879829933.373652</v>
+        <v>2015566620.497845</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1474700313312794</v>
+        <v>0.165200427839894</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03020212607564167</v>
+        <v>0.02085081300488055</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>939915010.4145918</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3264548883.489204</v>
+        <v>4189150876.014798</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1173904017551974</v>
+        <v>0.09653955118821636</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04735529326029705</v>
+        <v>0.03878086640767925</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>77</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1632274460.100581</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1886285928.921339</v>
+        <v>1476328796.63936</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1619035408950794</v>
+        <v>0.1476283340002258</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03378672623238965</v>
+        <v>0.03428843434504925</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>943143066.2230295</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5174170955.324508</v>
+        <v>4189996303.20006</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07786814161203573</v>
+        <v>0.1051082422271072</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03675638776098646</v>
+        <v>0.03837607137608249</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>46</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2587085535.516316</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4885678652.867311</v>
+        <v>4832615280.46401</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1334024303780385</v>
+        <v>0.119943234961543</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02675594262224449</v>
+        <v>0.03167185633850832</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>49</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2442839322.490857</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5033432681.414755</v>
+        <v>3553789618.107601</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1774588918387602</v>
+        <v>0.1616704527653361</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0213991553845056</v>
+        <v>0.02619147600436151</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>77</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2516716322.772446</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1777620514.898762</v>
+        <v>1656242972.845994</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09675243260206608</v>
+        <v>0.1105511385539124</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03968456630312446</v>
+        <v>0.033472674991513</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>888810215.0681731</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2194937276.7911</v>
+        <v>2554005860.32653</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1068603468928384</v>
+        <v>0.1137616509963651</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05071655645116778</v>
+        <v>0.04469611618926154</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1097468614.844611</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3050267992.014553</v>
+        <v>3524611918.968122</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1660831370322701</v>
+        <v>0.1195041153074956</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03447945232583721</v>
+        <v>0.05461307817858761</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>83</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1525134061.679822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2191617379.286698</v>
+        <v>1805926021.645599</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1050837523314813</v>
+        <v>0.1500996192563878</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02487896568290288</v>
+        <v>0.02103432679782601</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>29</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1095808743.878959</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1184044382.757496</v>
+        <v>1024438083.071557</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1693968717627961</v>
+        <v>0.1222137553155422</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0299044409098326</v>
+        <v>0.03386093165538882</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>592022242.856179</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2467852212.647354</v>
+        <v>3276679767.314141</v>
       </c>
       <c r="F88" t="n">
-        <v>0.173795568461772</v>
+        <v>0.1696003853418744</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02809830107976401</v>
+        <v>0.02447519247147614</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>87</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1233926084.160652</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2866799479.575695</v>
+        <v>3323345425.702078</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1111393562693274</v>
+        <v>0.1044558543219811</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03759311805517668</v>
+        <v>0.02807927191942705</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>75</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1433399787.64779</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1820198130.818386</v>
+        <v>1899604698.15483</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08735367243019886</v>
+        <v>0.08348683655109024</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03893387298429475</v>
+        <v>0.03715540727399672</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>910099102.7044623</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1752695696.73558</v>
+        <v>1703640059.303704</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1488142469179149</v>
+        <v>0.1518041379817265</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03764909239652985</v>
+        <v>0.03973493865739397</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>876347853.5845703</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1992853433.631254</v>
+        <v>2117320673.92248</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08907459812361518</v>
+        <v>0.1011627824793744</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03528473787874768</v>
+        <v>0.04191082254101068</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>57</v>
-      </c>
-      <c r="J92" t="n">
-        <v>996426662.4200997</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4625281373.024561</v>
+        <v>3172476542.726678</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1247575588623446</v>
+        <v>0.1173300070269697</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04390751954828949</v>
+        <v>0.03613199194884655</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>71</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2312640646.696299</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2498630244.509931</v>
+        <v>1928548502.034112</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1170887516300826</v>
+        <v>0.1482873786959206</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02786612261754018</v>
+        <v>0.03416352831874601</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1249315185.484427</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2254073519.69114</v>
+        <v>2170547391.762706</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0965799860041638</v>
+        <v>0.1097577547944693</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04833405206406075</v>
+        <v>0.0463253614374045</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>55</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1127036813.804841</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1803870470.477007</v>
+        <v>1963418408.347955</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1315363050672811</v>
+        <v>0.1321193558918344</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04092488891318687</v>
+        <v>0.03330193627528173</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>901935243.1395251</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4695271493.296857</v>
+        <v>4363474350.473333</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1553333597569727</v>
+        <v>0.1419379968529311</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02065174564619202</v>
+        <v>0.02044220133577058</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>71</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2347635858.923011</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3309993300.494217</v>
+        <v>2963828956.907094</v>
       </c>
       <c r="F98" t="n">
-        <v>0.116259135362764</v>
+        <v>0.0946094120419663</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02434175777366153</v>
+        <v>0.03016344795880393</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>58</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1654996655.976179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2611552926.8045</v>
+        <v>2985352790.926861</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1243300566303939</v>
+        <v>0.09862157271204292</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03463766084000121</v>
+        <v>0.02988444407194562</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>69</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1305776421.183806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3717229508.577708</v>
+        <v>3360959125.948093</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1653384561465459</v>
+        <v>0.1698374486985085</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02522129932456251</v>
+        <v>0.02587899794065978</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>71</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1858614802.379239</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3252868651.299783</v>
+        <v>3216593890.795807</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1686232057598481</v>
+        <v>0.1421301214732287</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03876802382007118</v>
+        <v>0.03922625625974517</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>90</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1626434448.115952</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_221.xlsx
+++ b/output/fit_clients/fit_round_221.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1694291060.183107</v>
+        <v>1696330168.995396</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1139077818161542</v>
+        <v>0.08830383493123611</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0330741881707713</v>
+        <v>0.0278948395328338</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2047543783.554585</v>
+        <v>1600445095.402002</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1589623961617382</v>
+        <v>0.1334982819550396</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03103925678713386</v>
+        <v>0.03352351435719589</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4710638749.320607</v>
+        <v>4663358590.903991</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1481456110394089</v>
+        <v>0.1546811518147916</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02549950466116991</v>
+        <v>0.03098009434283199</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3196809343.849715</v>
+        <v>3633875939.181652</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08589648219527625</v>
+        <v>0.07629872329673655</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04531407045591201</v>
+        <v>0.0325659698172383</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2431558376.88307</v>
+        <v>2268885294.964974</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1363103342608276</v>
+        <v>0.1101947568667861</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03605323961100047</v>
+        <v>0.04455638234982467</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3141153605.25311</v>
+        <v>3079148900.058672</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07018978040689482</v>
+        <v>0.08575523588576747</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03095014086609447</v>
+        <v>0.04763221668534817</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2637399057.163916</v>
+        <v>2418480600.057656</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1499511833919004</v>
+        <v>0.1790201966380223</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02484601121850054</v>
+        <v>0.02530810624791956</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1460730980.093956</v>
+        <v>1926982715.281402</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1350295247274455</v>
+        <v>0.1915370498051087</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03212148147924784</v>
+        <v>0.02467020739480255</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4246949998.720585</v>
+        <v>5262687642.147289</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2045948856230536</v>
+        <v>0.1694043749162024</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04630309286503093</v>
+        <v>0.04972911534993301</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3545403667.014446</v>
+        <v>3106873650.925058</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1403055426454356</v>
+        <v>0.136157310070314</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04464879841148616</v>
+        <v>0.03298858805397101</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2807858872.241817</v>
+        <v>2952132236.546429</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1943022457921214</v>
+        <v>0.1310598363615827</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04686055873157174</v>
+        <v>0.03889595720698978</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4279392349.236619</v>
+        <v>4011786633.854073</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1020103188491735</v>
+        <v>0.06306876614163953</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02021973411454632</v>
+        <v>0.01935187601204089</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3560249112.735404</v>
+        <v>3823695524.195709</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1797376810808694</v>
+        <v>0.1221488581710555</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03343880236591469</v>
+        <v>0.02803605182633162</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1268378180.258421</v>
+        <v>1156055639.333149</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0714802442152479</v>
+        <v>0.09909275204266574</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04058690044625993</v>
+        <v>0.04642133062566103</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1996932094.369535</v>
+        <v>1915539564.86375</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09583093187262788</v>
+        <v>0.07600753471794668</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04768528719142876</v>
+        <v>0.0498435137170677</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4565043902.718208</v>
+        <v>3821887614.25681</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1730488953213599</v>
+        <v>0.1473691448059322</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03948908417101352</v>
+        <v>0.03648055293733668</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3648880689.072425</v>
+        <v>3402899802.34231</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1702318439854563</v>
+        <v>0.1556125874369511</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02234397169820031</v>
+        <v>0.02627505825438351</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1175660219.310069</v>
+        <v>1063773305.781835</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1608759168028396</v>
+        <v>0.1219160373568806</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01762062058243729</v>
+        <v>0.02048842747986435</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2559768254.52392</v>
+        <v>1791283718.442457</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1148172774844627</v>
+        <v>0.1519160067437879</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02038327590546024</v>
+        <v>0.02148227647055232</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1705801459.326726</v>
+        <v>1688856115.066191</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06896737881371152</v>
+        <v>0.06497222564175432</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03714223916970773</v>
+        <v>0.03714824034694641</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2760603601.776552</v>
+        <v>2806803698.225843</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1428933154666525</v>
+        <v>0.1436242089763632</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04887647979033354</v>
+        <v>0.05130990620634523</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>944395493.2094836</v>
+        <v>1157150869.277014</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1211665147590749</v>
+        <v>0.1296171771640492</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04760672274218061</v>
+        <v>0.03398418748630981</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2536992225.490332</v>
+        <v>3700314924.936751</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09190144078721686</v>
+        <v>0.09921886002565776</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03739156910659567</v>
+        <v>0.02793407226916812</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1187008896.103666</v>
+        <v>1380202511.896392</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1111055121402142</v>
+        <v>0.101765386257767</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02680012982847423</v>
+        <v>0.01931910897645557</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>966013573.7280033</v>
+        <v>1066799091.764527</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1120027467449325</v>
+        <v>0.1053512248484972</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02747798455175557</v>
+        <v>0.03897787516567099</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4009987690.432998</v>
+        <v>3744242710.182571</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1351839018745787</v>
+        <v>0.1193524697720431</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01994717794343576</v>
+        <v>0.02541362823069311</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3293589112.469787</v>
+        <v>2557293512.111913</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09459975084772812</v>
+        <v>0.1437761457308474</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03877983935644143</v>
+        <v>0.04715825217382238</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5143822316.111352</v>
+        <v>5936693174.739571</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1367195772233911</v>
+        <v>0.1503856562694513</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03335874597524036</v>
+        <v>0.02899026322202094</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1530111087.953477</v>
+        <v>2098261148.43952</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1385065781104435</v>
+        <v>0.120800689069002</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03851574421952881</v>
+        <v>0.03911556243627813</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1403445869.495891</v>
+        <v>1302008803.655654</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07946618596332744</v>
+        <v>0.1004820561182738</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04935603446723399</v>
+        <v>0.03936196927462041</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1359160425.362187</v>
+        <v>1452447128.711962</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09107776554786443</v>
+        <v>0.1040229454224662</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02403052555001414</v>
+        <v>0.0379970683237071</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2246828333.454341</v>
+        <v>2006013294.2023</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2048159918034267</v>
+        <v>0.1431303419508101</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04285830039420753</v>
+        <v>0.04281452651646971</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1449290257.782455</v>
+        <v>1036484186.36652</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1082277408768206</v>
+        <v>0.1095575171976244</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01889931721049185</v>
+        <v>0.02520114993471971</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1025906093.119941</v>
+        <v>1091201032.055696</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08506285373619481</v>
+        <v>0.1128126483381055</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02718825658463652</v>
+        <v>0.02936887555527194</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2075654697.247639</v>
+        <v>2128156894.064697</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1443229962584791</v>
+        <v>0.1732393158166725</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02765431753014231</v>
+        <v>0.02519444371131326</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2217725830.928728</v>
+        <v>1880321468.080925</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07284104692238813</v>
+        <v>0.07737577305520074</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02724391342923232</v>
+        <v>0.0273487563879966</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1782110439.822513</v>
+        <v>1720231431.199921</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07388606520731797</v>
+        <v>0.0896374167547392</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03310804388853902</v>
+        <v>0.0270895856077863</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2215641369.769092</v>
+        <v>1797262603.986365</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1560921802570277</v>
+        <v>0.1229980814240884</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03109524819666069</v>
+        <v>0.02593291157715555</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1177754964.245494</v>
+        <v>1215456316.034993</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1594772247333268</v>
+        <v>0.102851611413216</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04054375949610629</v>
+        <v>0.05947552447648022</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2242477420.920601</v>
+        <v>1952064482.910632</v>
       </c>
       <c r="F41" t="n">
-        <v>0.160323356270247</v>
+        <v>0.122178526745827</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04261897647253417</v>
+        <v>0.03016884484229031</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3317893071.535678</v>
+        <v>3918783528.882333</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07724888353967646</v>
+        <v>0.1106688844043747</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04144580467851878</v>
+        <v>0.03131894475894169</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1970916362.38536</v>
+        <v>2289529998.137076</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1346016812690934</v>
+        <v>0.1356842521444362</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02433109473282655</v>
+        <v>0.02501201843732949</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1818582700.374268</v>
+        <v>1927093346.248843</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07365184341330652</v>
+        <v>0.09315198437442189</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0261067061938721</v>
+        <v>0.0224787164424652</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2504092871.283695</v>
+        <v>1823309694.465045</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1469808085948344</v>
+        <v>0.1459991260094173</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0492774899104101</v>
+        <v>0.0388328298758189</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4156248178.050471</v>
+        <v>4460798346.61483</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1727042387046035</v>
+        <v>0.1393941429977896</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04536054356006228</v>
+        <v>0.03913338905860237</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5157332926.583025</v>
+        <v>5057390100.731624</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1436281644858403</v>
+        <v>0.1600470554943062</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04322511026485206</v>
+        <v>0.0498328992437153</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3114241748.921187</v>
+        <v>3263559129.171364</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0895383634457692</v>
+        <v>0.06897954966264569</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03693849525327698</v>
+        <v>0.0255807217298939</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1200316052.449854</v>
+        <v>1225626642.974525</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1942251277964584</v>
+        <v>0.1350841658604667</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02785620688792491</v>
+        <v>0.03296138169561396</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3943084964.760625</v>
+        <v>3796100690.991521</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1158144885317612</v>
+        <v>0.1653120493498438</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03775234587827814</v>
+        <v>0.03503811330304307</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1402648867.495868</v>
+        <v>1238961551.396185</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1336609990268347</v>
+        <v>0.1579005142896553</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04110964817338884</v>
+        <v>0.04947862257935792</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4005295805.257853</v>
+        <v>4241844408.755683</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1321924437134157</v>
+        <v>0.1390759225132136</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04006287505446816</v>
+        <v>0.05435157348262556</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2660348631.286736</v>
+        <v>3173398619.685029</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1561061018453742</v>
+        <v>0.1878223595305243</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0242775897657687</v>
+        <v>0.02518642392903454</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4421013075.981435</v>
+        <v>4779318452.272426</v>
       </c>
       <c r="F54" t="n">
-        <v>0.119755831079778</v>
+        <v>0.1334044298947058</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0353481020807413</v>
+        <v>0.03387555007439385</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3488459127.37813</v>
+        <v>4338419136.690167</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1681667704451799</v>
+        <v>0.1538125874263724</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03164011803513678</v>
+        <v>0.02420558345304493</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1702433423.367776</v>
+        <v>1530402191.475582</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1445542293343697</v>
+        <v>0.1298693930618849</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05133394514576874</v>
+        <v>0.04545707659137306</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4289607182.28087</v>
+        <v>3170089277.070664</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1641894249665685</v>
+        <v>0.121949051988744</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01917175937585705</v>
+        <v>0.02445136101383402</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1252161067.114745</v>
+        <v>1688457361.336744</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1694730949806004</v>
+        <v>0.1250461258694885</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03583176692359087</v>
+        <v>0.02808597250524393</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4676951929.475136</v>
+        <v>4021937363.787667</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08829136054931179</v>
+        <v>0.09706000338338391</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03272230849697959</v>
+        <v>0.04356042266372856</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3327324554.045933</v>
+        <v>2512704054.159409</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1837286687519215</v>
+        <v>0.1828692446050574</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03354140535795345</v>
+        <v>0.0202267422933688</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3205962985.898874</v>
+        <v>2563846033.316101</v>
       </c>
       <c r="F61" t="n">
-        <v>0.124775304113994</v>
+        <v>0.1575155380200268</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02199407142498574</v>
+        <v>0.02159355037627826</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1288339434.497091</v>
+        <v>1538128665.280123</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1940577959668335</v>
+        <v>0.1629324221343997</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04589152676376891</v>
+        <v>0.03022782876150827</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4912604381.247105</v>
+        <v>4037629709.634082</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08101797173128733</v>
+        <v>0.1068718320607912</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04679738893461612</v>
+        <v>0.03628316327882219</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5191717231.435882</v>
+        <v>3422333726.905527</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1162785742437234</v>
+        <v>0.1456085424699806</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0310354590691243</v>
+        <v>0.0232221831095894</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3717184782.601422</v>
+        <v>4728512565.184507</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1666208405985848</v>
+        <v>0.1257729668789498</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0236486307169938</v>
+        <v>0.02930845657864981</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5456047420.238292</v>
+        <v>5617493966.826234</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1346661039373184</v>
+        <v>0.1311833101257349</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04555223910203125</v>
+        <v>0.03457147578103887</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,16 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3114898194.330263</v>
+        <v>3177454349.397264</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06834284720416908</v>
+        <v>0.09195273925888739</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05049165862121722</v>
+        <v>0.03514884496094967</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6016744385.560891</v>
+        <v>5168028956.928844</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1151346335181091</v>
+        <v>0.09973311871409397</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04769393748605017</v>
+        <v>0.03576376249317516</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1505768986.574393</v>
+        <v>1699731237.294502</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1502736390355174</v>
+        <v>0.162164429074651</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03902040191591116</v>
+        <v>0.03699827874097637</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,16 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2317515806.147746</v>
+        <v>2714558700.002933</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07692508244186973</v>
+        <v>0.07266835844377095</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04265118906947728</v>
+        <v>0.03471739350414871</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4348672579.456476</v>
+        <v>4310019461.741222</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1253289345225244</v>
+        <v>0.11870033580966</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02152949255731005</v>
+        <v>0.02452270413301848</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1582097817.0626</v>
+        <v>1945979227.547144</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08064058702087235</v>
+        <v>0.09738802346706825</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03994060804781369</v>
+        <v>0.03492404045081329</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3414550816.012636</v>
+        <v>2716214944.716838</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07367159161309313</v>
+        <v>0.106914388383393</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03644268401491106</v>
+        <v>0.05137867427064829</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3730706276.527416</v>
+        <v>2501026297.286938</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1345864207060741</v>
+        <v>0.171868359064438</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02948648101228487</v>
+        <v>0.03458344246209986</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1840925705.858119</v>
+        <v>2245929081.221189</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1244726026634984</v>
+        <v>0.1059107065670752</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02332644476757582</v>
+        <v>0.02508787974102781</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4538319182.168016</v>
+        <v>3893196087.762972</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1117188214032028</v>
+        <v>0.1208149251066338</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03245249653500142</v>
+        <v>0.02474836711155502</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2015566620.497845</v>
+        <v>1546622776.471025</v>
       </c>
       <c r="F77" t="n">
-        <v>0.165200427839894</v>
+        <v>0.1543928103218334</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02085081300488055</v>
+        <v>0.03147442505454361</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4189150876.014798</v>
+        <v>3863023058.641403</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09653955118821636</v>
+        <v>0.09168803132030619</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03878086640767925</v>
+        <v>0.04586153420445361</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1476328796.63936</v>
+        <v>1366307041.114719</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1476283340002258</v>
+        <v>0.1616779383587316</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03428843434504925</v>
+        <v>0.026056366811693</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4189996303.20006</v>
+        <v>4543724476.793918</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1051082422271072</v>
+        <v>0.08391896647765718</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03837607137608249</v>
+        <v>0.0251493158432036</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4832615280.46401</v>
+        <v>4950449766.064056</v>
       </c>
       <c r="F81" t="n">
-        <v>0.119943234961543</v>
+        <v>0.09685295805750238</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03167185633850832</v>
+        <v>0.01994476892172425</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3553789618.107601</v>
+        <v>4152747593.436464</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1616704527653361</v>
+        <v>0.1886749865256157</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02619147600436151</v>
+        <v>0.02750338587838403</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1656242972.845994</v>
+        <v>2085104101.416852</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1105511385539124</v>
+        <v>0.1065694423727042</v>
       </c>
       <c r="G83" t="n">
-        <v>0.033472674991513</v>
+        <v>0.03452787958524631</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2554005860.32653</v>
+        <v>1594592296.250005</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1137616509963651</v>
+        <v>0.07399611398797083</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04469611618926154</v>
+        <v>0.04467727914274932</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3524611918.968122</v>
+        <v>2281145353.647538</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1195041153074956</v>
+        <v>0.1602526165401049</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05461307817858761</v>
+        <v>0.03534640957891567</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1805926021.645599</v>
+        <v>1986689325.962353</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1500996192563878</v>
+        <v>0.1730557067187251</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02103432679782601</v>
+        <v>0.02596469524059386</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1024438083.071557</v>
+        <v>1185092288.41997</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1222137553155422</v>
+        <v>0.1672879065217702</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03386093165538882</v>
+        <v>0.04092199057837964</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3276679767.314141</v>
+        <v>3651633938.928411</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1696003853418744</v>
+        <v>0.1726603881113716</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02447519247147614</v>
+        <v>0.03920929024847602</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3323345425.702078</v>
+        <v>2731475008.479404</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1044558543219811</v>
+        <v>0.1015662282939495</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02807927191942705</v>
+        <v>0.03453504097833855</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1899604698.15483</v>
+        <v>1413229461.874443</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08348683655109024</v>
+        <v>0.1068490674208217</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03715540727399672</v>
+        <v>0.03888697926046178</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1703640059.303704</v>
+        <v>1488800180.124379</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1518041379817265</v>
+        <v>0.1382681687270878</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03973493865739397</v>
+        <v>0.05781868449329381</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2117320673.92248</v>
+        <v>2058163212.445185</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1011627824793744</v>
+        <v>0.09630250893037162</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04191082254101068</v>
+        <v>0.0468403372566137</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3172476542.726678</v>
+        <v>3294895665.027813</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1173300070269697</v>
+        <v>0.1188523794630259</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03613199194884655</v>
+        <v>0.04489080839930309</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,16 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1928548502.034112</v>
+        <v>2053191519.689353</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1482873786959206</v>
+        <v>0.1156637282455804</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03416352831874601</v>
+        <v>0.03235298338323343</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2170547391.762706</v>
+        <v>2788994226.374421</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1097577547944693</v>
+        <v>0.1348687262215925</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0463253614374045</v>
+        <v>0.04500552211964187</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1963418408.347955</v>
+        <v>2239822184.636157</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1321193558918344</v>
+        <v>0.1082142127297916</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03330193627528173</v>
+        <v>0.0450929703381442</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4363474350.473333</v>
+        <v>3707465901.212166</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1419379968529311</v>
+        <v>0.1318329474706326</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02044220133577058</v>
+        <v>0.02367499857391893</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2963828956.907094</v>
+        <v>2785272683.428062</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0946094120419663</v>
+        <v>0.1062349016502081</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03016344795880393</v>
+        <v>0.02266075805210313</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2985352790.926861</v>
+        <v>2593227937.582122</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09862157271204292</v>
+        <v>0.1483626580936835</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02988444407194562</v>
+        <v>0.02444510488060315</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3360959125.948093</v>
+        <v>3356801776.928052</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1698374486985085</v>
+        <v>0.1294938809051892</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02587899794065978</v>
+        <v>0.02093750820603791</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3216593890.795807</v>
+        <v>2456875596.008781</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1421301214732287</v>
+        <v>0.192536566256797</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03922625625974517</v>
+        <v>0.04943143759214615</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_221.xlsx
+++ b/output/fit_clients/fit_round_221.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1696330168.995396</v>
+        <v>2247631023.373688</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08830383493123611</v>
+        <v>0.1115367709876555</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0278948395328338</v>
+        <v>0.04374266870836106</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1600445095.402002</v>
+        <v>2441272397.125694</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1334982819550396</v>
+        <v>0.1597501324676391</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03352351435719589</v>
+        <v>0.03787686147877312</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4663358590.903991</v>
+        <v>4620566706.058488</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1546811518147916</v>
+        <v>0.160929861605299</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03098009434283199</v>
+        <v>0.03577654086662439</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>120</v>
+      </c>
+      <c r="J4" t="n">
+        <v>221</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,17 +606,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3633875939.181652</v>
+        <v>4057677837.879001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07629872329673655</v>
+        <v>0.1081317417444999</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0325659698172383</v>
+        <v>0.03144966064915843</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>90</v>
+      </c>
+      <c r="J5" t="n">
+        <v>221</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2268885294.964974</v>
+        <v>2104703118.992576</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1101947568667861</v>
+        <v>0.0980312825200613</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04455638234982467</v>
+        <v>0.0432809959533789</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +676,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3079148900.058672</v>
+        <v>2558914690.126935</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08575523588576747</v>
+        <v>0.0981758699815822</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04763221668534817</v>
+        <v>0.03654293095776166</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2418480600.057656</v>
+        <v>3972146919.518595</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1790201966380223</v>
+        <v>0.2108284469980024</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02530810624791956</v>
+        <v>0.03037734897752364</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>61</v>
+      </c>
+      <c r="J8" t="n">
+        <v>221</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1926982715.281402</v>
+        <v>2270929802.59336</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1915370498051087</v>
+        <v>0.1670647021044673</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02467020739480255</v>
+        <v>0.03275681757109288</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +781,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5262687642.147289</v>
+        <v>5689105206.879711</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1694043749162024</v>
+        <v>0.1548737916316629</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04972911534993301</v>
+        <v>0.04531129578445155</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>202</v>
+      </c>
+      <c r="J10" t="n">
+        <v>221</v>
+      </c>
+      <c r="K10" t="n">
+        <v>119.2670494360442</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3106873650.925058</v>
+        <v>3640299024.836668</v>
       </c>
       <c r="F11" t="n">
-        <v>0.136157310070314</v>
+        <v>0.1619914978469366</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03298858805397101</v>
+        <v>0.04067579936623723</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>93</v>
+      </c>
+      <c r="J11" t="n">
+        <v>219</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2952132236.546429</v>
+        <v>2673382028.58769</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1310598363615827</v>
+        <v>0.1945323183241325</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03889595720698978</v>
+        <v>0.04210387379025653</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +888,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4011786633.854073</v>
+        <v>4912021606.058967</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06306876614163953</v>
+        <v>0.06231640688341528</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01935187601204089</v>
+        <v>0.02598110446657263</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>111</v>
+      </c>
+      <c r="J13" t="n">
+        <v>221</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +917,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3823695524.195709</v>
+        <v>3069885957.090456</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1221488581710555</v>
+        <v>0.1833402497589005</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02803605182633162</v>
+        <v>0.0323090707639816</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>42</v>
+      </c>
+      <c r="J14" t="n">
+        <v>212</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +952,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1156055639.333149</v>
+        <v>1500285065.788504</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09909275204266574</v>
+        <v>0.1065516087357596</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04642133062566103</v>
+        <v>0.04498824654527481</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +987,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1915539564.86375</v>
+        <v>1888917681.762138</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07600753471794668</v>
+        <v>0.08915976927200964</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0498435137170677</v>
+        <v>0.0389440450316054</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1022,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3821887614.25681</v>
+        <v>4245028864.540748</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1473691448059322</v>
+        <v>0.1450274825669524</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03648055293733668</v>
+        <v>0.04487721300141304</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>106</v>
+      </c>
+      <c r="J17" t="n">
+        <v>221</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1057,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3402899802.34231</v>
+        <v>3695817880.74663</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1556125874369511</v>
+        <v>0.1121955764617089</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02627505825438351</v>
+        <v>0.02922812574428965</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>57</v>
+      </c>
+      <c r="J18" t="n">
+        <v>221</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1098,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1063773305.781835</v>
+        <v>850657330.1077038</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1219160373568806</v>
+        <v>0.1605362420985361</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02048842747986435</v>
+        <v>0.027123932789754</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1133,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1791283718.442457</v>
+        <v>2372078302.995467</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1519160067437879</v>
+        <v>0.1333369641245306</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02148227647055232</v>
+        <v>0.03161827640440333</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1162,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1688856115.066191</v>
+        <v>2437800121.042071</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06497222564175432</v>
+        <v>0.09625537531211602</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03714824034694641</v>
+        <v>0.04466844356834811</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1197,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2806803698.225843</v>
+        <v>2851241789.825951</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1436242089763632</v>
+        <v>0.1315802474566015</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05130990620634523</v>
+        <v>0.05630701618333331</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>56</v>
+      </c>
+      <c r="J22" t="n">
+        <v>218</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1238,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1157150869.277014</v>
+        <v>1114816479.919041</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1296171771640492</v>
+        <v>0.1163976490923266</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03398418748630981</v>
+        <v>0.04223986434603497</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1273,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3700314924.936751</v>
+        <v>4064734491.302068</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09921886002565776</v>
+        <v>0.1306070783683699</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02793407226916812</v>
+        <v>0.036915195757521</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>70</v>
+      </c>
+      <c r="J24" t="n">
+        <v>220</v>
+      </c>
+      <c r="K24" t="n">
+        <v>104.1227491189401</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1310,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1380202511.896392</v>
+        <v>1445673794.508046</v>
       </c>
       <c r="F25" t="n">
-        <v>0.101765386257767</v>
+        <v>0.1219845830840247</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01931910897645557</v>
+        <v>0.0275061071655603</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1339,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1066799091.764527</v>
+        <v>1352029986.050877</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1053512248484972</v>
+        <v>0.1001916743921058</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03897787516567099</v>
+        <v>0.03127443227699631</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1374,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3744242710.182571</v>
+        <v>3352583696.104793</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1193524697720431</v>
+        <v>0.1246876539594052</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02541362823069311</v>
+        <v>0.02284424179479986</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>88</v>
+      </c>
+      <c r="J27" t="n">
+        <v>220</v>
+      </c>
+      <c r="K27" t="n">
+        <v>74.42580031783331</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1411,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2557293512.111913</v>
+        <v>2632270432.284438</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1437761457308474</v>
+        <v>0.1513340628453052</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04715825217382238</v>
+        <v>0.0331302433184826</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>45</v>
+      </c>
+      <c r="J28" t="n">
+        <v>218</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1446,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5936693174.739571</v>
+        <v>3840028912.552334</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1503856562694513</v>
+        <v>0.0931403496779238</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02899026322202094</v>
+        <v>0.03889121471471933</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>210</v>
+      </c>
+      <c r="J29" t="n">
+        <v>221</v>
+      </c>
+      <c r="K29" t="n">
+        <v>125.4468649526545</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1483,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2098261148.43952</v>
+        <v>1856425893.783411</v>
       </c>
       <c r="F30" t="n">
-        <v>0.120800689069002</v>
+        <v>0.1382517006350176</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03911556243627813</v>
+        <v>0.03564784868992801</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1518,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1302008803.655654</v>
+        <v>1296837805.276039</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1004820561182738</v>
+        <v>0.08347238279578732</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03936196927462041</v>
+        <v>0.04801388688908328</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1553,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1452447128.711962</v>
+        <v>1442915180.303937</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1040229454224662</v>
+        <v>0.08787751033129641</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0379970683237071</v>
+        <v>0.02463358559741967</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1594,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2006013294.2023</v>
+        <v>3022543793.226066</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1431303419508101</v>
+        <v>0.1961889846160695</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04281452651646971</v>
+        <v>0.05543415976746284</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1629,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1036484186.36652</v>
+        <v>1119290325.910575</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1095575171976244</v>
+        <v>0.1006747156757471</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02520114993471971</v>
+        <v>0.02473146825202727</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1658,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1091201032.055696</v>
+        <v>1017678961.712516</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1128126483381055</v>
+        <v>0.1098099438367266</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02936887555527194</v>
+        <v>0.03404145742053483</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1693,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2128156894.064697</v>
+        <v>2481532583.54109</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1732393158166725</v>
+        <v>0.1612126399311007</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02519444371131326</v>
+        <v>0.02543091925817519</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1734,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1880321468.080925</v>
+        <v>2383960979.422871</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07737577305520074</v>
+        <v>0.07857259359122813</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0273487563879966</v>
+        <v>0.03578863306114542</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1763,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1720231431.199921</v>
+        <v>1512669838.624842</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0896374167547392</v>
+        <v>0.09682327103155437</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0270895856077863</v>
+        <v>0.02917191247300024</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1798,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1797262603.986365</v>
+        <v>1383337162.567146</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1229980814240884</v>
+        <v>0.1621936684068609</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02593291157715555</v>
+        <v>0.0303791443567351</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1839,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1215456316.034993</v>
+        <v>1444652160.560279</v>
       </c>
       <c r="F40" t="n">
-        <v>0.102851611413216</v>
+        <v>0.1481966188068747</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05947552447648022</v>
+        <v>0.05663567283421551</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1874,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1952064482.910632</v>
+        <v>2574798780.728023</v>
       </c>
       <c r="F41" t="n">
-        <v>0.122178526745827</v>
+        <v>0.1663308668870003</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03016884484229031</v>
+        <v>0.03928365571031135</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1903,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3918783528.882333</v>
+        <v>3238387710.027314</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1106688844043747</v>
+        <v>0.1240026535897759</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03131894475894169</v>
+        <v>0.03427099150506274</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>88</v>
+      </c>
+      <c r="J42" t="n">
+        <v>220</v>
+      </c>
+      <c r="K42" t="n">
+        <v>84.19281020813422</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2289529998.137076</v>
+        <v>2870135901.567633</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1356842521444362</v>
+        <v>0.1597360925918985</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02501201843732949</v>
+        <v>0.01942295986147739</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1927093346.248843</v>
+        <v>1553353765.41784</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09315198437442189</v>
+        <v>0.1007099647207857</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0224787164424652</v>
+        <v>0.03144249106593588</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2016,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1823309694.465045</v>
+        <v>2350526226.396692</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1459991260094173</v>
+        <v>0.1595370730791326</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0388328298758189</v>
+        <v>0.03630540375494373</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2051,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4460798346.61483</v>
+        <v>5344268604.042753</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1393941429977896</v>
+        <v>0.1315444750203019</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03913338905860237</v>
+        <v>0.05305813554846887</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>126</v>
+      </c>
+      <c r="J46" t="n">
+        <v>221</v>
+      </c>
+      <c r="K46" t="n">
+        <v>114.6422457497606</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2088,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5057390100.731624</v>
+        <v>5125592266.911687</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1600470554943062</v>
+        <v>0.194935656094585</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0498328992437153</v>
+        <v>0.04028025136952178</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>99</v>
+      </c>
+      <c r="J47" t="n">
+        <v>221</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2123,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3263559129.171364</v>
+        <v>3291322761.239738</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06897954966264569</v>
+        <v>0.08849459995027435</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0255807217298939</v>
+        <v>0.0314991725175217</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>109</v>
+      </c>
+      <c r="J48" t="n">
+        <v>219</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2152,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1225626642.974525</v>
+        <v>1364138665.727037</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1350841658604667</v>
+        <v>0.1237558869940129</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03296138169561396</v>
+        <v>0.04108207489804109</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2187,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3796100690.991521</v>
+        <v>3917785600.901897</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1653120493498438</v>
+        <v>0.1649917956939338</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03503811330304307</v>
+        <v>0.03660875468574412</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>71</v>
+      </c>
+      <c r="J50" t="n">
+        <v>221</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2222,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1238961551.396185</v>
+        <v>1271686512.696408</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1579005142896553</v>
+        <v>0.1520106952857319</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04947862257935792</v>
+        <v>0.03829514799394473</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2257,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4241844408.755683</v>
+        <v>3827663972.115598</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1390759225132136</v>
+        <v>0.1315162969321713</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05435157348262556</v>
+        <v>0.05012904897214548</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>148</v>
+      </c>
+      <c r="J52" t="n">
+        <v>220</v>
+      </c>
+      <c r="K52" t="n">
+        <v>109.321198488822</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2300,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3173398619.685029</v>
+        <v>3730288557.741827</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1878223595305243</v>
+        <v>0.2035478375230191</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02518642392903454</v>
+        <v>0.03498878397025607</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>29</v>
+      </c>
+      <c r="J53" t="n">
+        <v>221</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2329,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4779318452.272426</v>
+        <v>4708326570.595673</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1334044298947058</v>
+        <v>0.1256638487279286</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03387555007439385</v>
+        <v>0.0525764306897907</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>117</v>
+      </c>
+      <c r="J54" t="n">
+        <v>221</v>
+      </c>
+      <c r="K54" t="n">
+        <v>115.1672276748094</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2366,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4338419136.690167</v>
+        <v>4292585086.21721</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1538125874263724</v>
+        <v>0.1992285193105723</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02420558345304493</v>
+        <v>0.02247534176948526</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>99</v>
+      </c>
+      <c r="J55" t="n">
+        <v>221</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2401,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1530402191.475582</v>
+        <v>1432843276.983206</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1298693930618849</v>
+        <v>0.1223870386202622</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04545707659137306</v>
+        <v>0.03800632975384897</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2436,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3170089277.070664</v>
+        <v>3313147695.799367</v>
       </c>
       <c r="F57" t="n">
-        <v>0.121949051988744</v>
+        <v>0.1821571383082454</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02445136101383402</v>
+        <v>0.01761738688542518</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>86</v>
+      </c>
+      <c r="J57" t="n">
+        <v>220</v>
+      </c>
+      <c r="K57" t="n">
+        <v>84.34766943869937</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2479,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1688457361.336744</v>
+        <v>1185422208.563785</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1250461258694885</v>
+        <v>0.1424295837649924</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02808597250524393</v>
+        <v>0.0276655764635092</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2514,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4021937363.787667</v>
+        <v>4894977302.560925</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09706000338338391</v>
+        <v>0.1229540707670665</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04356042266372856</v>
+        <v>0.03957053911750087</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>107</v>
+      </c>
+      <c r="J59" t="n">
+        <v>220</v>
+      </c>
+      <c r="K59" t="n">
+        <v>103.0118286902082</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2512704054.159409</v>
+        <v>3107919377.717967</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1828692446050574</v>
+        <v>0.1590310616077059</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0202267422933688</v>
+        <v>0.02033829896087017</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>32</v>
+      </c>
+      <c r="J60" t="n">
+        <v>219</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2563846033.316101</v>
+        <v>2260432778.406224</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1575155380200268</v>
+        <v>0.1669982393160062</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02159355037627826</v>
+        <v>0.02101231068175569</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1538128665.280123</v>
+        <v>1786664768.483718</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1629324221343997</v>
+        <v>0.1362526933044511</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03022782876150827</v>
+        <v>0.03952354220999982</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2650,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4037629709.634082</v>
+        <v>3641990506.447309</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1068718320607912</v>
+        <v>0.070355874770761</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03628316327882219</v>
+        <v>0.03229735504278781</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>107</v>
+      </c>
+      <c r="J63" t="n">
+        <v>221</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2685,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3422333726.905527</v>
+        <v>3595003892.892224</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1456085424699806</v>
+        <v>0.1252751917304308</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0232221831095894</v>
+        <v>0.03204753453168632</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>109</v>
+      </c>
+      <c r="J64" t="n">
+        <v>220</v>
+      </c>
+      <c r="K64" t="n">
+        <v>95.14736789202178</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4728512565.184507</v>
+        <v>3641708920.58185</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1257729668789498</v>
+        <v>0.124836842997511</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02930845657864981</v>
+        <v>0.02550438012350023</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>175</v>
+      </c>
+      <c r="J65" t="n">
+        <v>220</v>
+      </c>
+      <c r="K65" t="n">
+        <v>105.3959476141445</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2765,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5617493966.826234</v>
+        <v>5621453124.650396</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1311833101257349</v>
+        <v>0.1525791011996943</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03457147578103887</v>
+        <v>0.04058846841110591</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>109</v>
+      </c>
+      <c r="J66" t="n">
+        <v>220</v>
+      </c>
+      <c r="K66" t="n">
+        <v>101.8084667002041</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2802,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3177454349.397264</v>
+        <v>3306838848.016772</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09195273925888739</v>
+        <v>0.06665292466727818</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03514884496094967</v>
+        <v>0.0437627214375458</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>3</v>
+      </c>
+      <c r="J67" t="n">
+        <v>211</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2831,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5168028956.928844</v>
+        <v>5167472086.934254</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09973311871409397</v>
+        <v>0.1063044904548198</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03576376249317516</v>
+        <v>0.03533211800963219</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>111</v>
+      </c>
+      <c r="J68" t="n">
+        <v>221</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1699731237.294502</v>
+        <v>2488593783.722013</v>
       </c>
       <c r="F69" t="n">
-        <v>0.162164429074651</v>
+        <v>0.1330013988696136</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03699827874097637</v>
+        <v>0.05025910806631904</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2714558700.002933</v>
+        <v>3475189398.670236</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07266835844377095</v>
+        <v>0.07435034214498168</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03471739350414871</v>
+        <v>0.03135394654235223</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>32</v>
+      </c>
+      <c r="J70" t="n">
+        <v>206</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4310019461.741222</v>
+        <v>5436424291.151274</v>
       </c>
       <c r="F71" t="n">
-        <v>0.11870033580966</v>
+        <v>0.1313617573677595</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02452270413301848</v>
+        <v>0.03185996708081993</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>169</v>
+      </c>
+      <c r="J71" t="n">
+        <v>221</v>
+      </c>
+      <c r="K71" t="n">
+        <v>114.8036810405489</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1945979227.547144</v>
+        <v>1557016281.408043</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09738802346706825</v>
+        <v>0.07453772495402289</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03492404045081329</v>
+        <v>0.03752122242593522</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2716214944.716838</v>
+        <v>3127640897.987912</v>
       </c>
       <c r="F73" t="n">
-        <v>0.106914388383393</v>
+        <v>0.09114569328474105</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05137867427064829</v>
+        <v>0.04545013325910863</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>12</v>
+      </c>
+      <c r="J73" t="n">
+        <v>208</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3049,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2501026297.286938</v>
+        <v>2896393956.694236</v>
       </c>
       <c r="F74" t="n">
-        <v>0.171868359064438</v>
+        <v>0.1759597635461493</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03458344246209986</v>
+        <v>0.02747508066829149</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>64</v>
+      </c>
+      <c r="J74" t="n">
+        <v>218</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3084,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2245929081.221189</v>
+        <v>2171783481.045373</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1059107065670752</v>
+        <v>0.1627993085979829</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02508787974102781</v>
+        <v>0.0251572013116018</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3113,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3893196087.762972</v>
+        <v>3863198123.85861</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1208149251066338</v>
+        <v>0.1233784439963788</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02474836711155502</v>
+        <v>0.03206550033845625</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>102</v>
+      </c>
+      <c r="J76" t="n">
+        <v>220</v>
+      </c>
+      <c r="K76" t="n">
+        <v>99.53308304985035</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1546622776.471025</v>
+        <v>2023991218.055283</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1543928103218334</v>
+        <v>0.1161334156610272</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03147442505454361</v>
+        <v>0.02091292300258215</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3863023058.641403</v>
+        <v>3866296675.821457</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09168803132030619</v>
+        <v>0.09397007567336238</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04586153420445361</v>
+        <v>0.0377275183674592</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>111</v>
+      </c>
+      <c r="J78" t="n">
+        <v>220</v>
+      </c>
+      <c r="K78" t="n">
+        <v>113.5707202417087</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1366307041.114719</v>
+        <v>1572553408.120859</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1616779383587316</v>
+        <v>0.1377070096924264</v>
       </c>
       <c r="G79" t="n">
-        <v>0.026056366811693</v>
+        <v>0.03711786572963872</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4543724476.793918</v>
+        <v>3902422427.555644</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08391896647765718</v>
+        <v>0.09525667053267339</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0251493158432036</v>
+        <v>0.0237611629252403</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>107</v>
+      </c>
+      <c r="J80" t="n">
+        <v>221</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4950449766.064056</v>
+        <v>4500869051.790799</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09685295805750238</v>
+        <v>0.1175220806296249</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01994476892172425</v>
+        <v>0.0300933990378415</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>101</v>
+      </c>
+      <c r="J81" t="n">
+        <v>221</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3333,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4152747593.436464</v>
+        <v>3627781412.871739</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1886749865256157</v>
+        <v>0.1384510270317668</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02750338587838403</v>
+        <v>0.02700353980280756</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>165</v>
+      </c>
+      <c r="J82" t="n">
+        <v>220</v>
+      </c>
+      <c r="K82" t="n">
+        <v>104.4053942109819</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2085104101.416852</v>
+        <v>1982076261.828168</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1065694423727042</v>
+        <v>0.1582501175476458</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03452787958524631</v>
+        <v>0.02921993834191049</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1594592296.250005</v>
+        <v>1567590423.550595</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07399611398797083</v>
+        <v>0.1199714146758905</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04467727914274932</v>
+        <v>0.03677449621437334</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2281145353.647538</v>
+        <v>3159992045.458194</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1602526165401049</v>
+        <v>0.165372747213536</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03534640957891567</v>
+        <v>0.04821299426673042</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>30</v>
+      </c>
+      <c r="J85" t="n">
+        <v>205</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1986689325.962353</v>
+        <v>2111631181.273942</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1730557067187251</v>
+        <v>0.1643199912620434</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02596469524059386</v>
+        <v>0.02725785991171779</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1185092288.41997</v>
+        <v>959040748.2265593</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1672879065217702</v>
+        <v>0.1267129032831575</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04092199057837964</v>
+        <v>0.02957730211827988</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3651633938.928411</v>
+        <v>3110835044.385642</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1726603881113716</v>
+        <v>0.132848078045143</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03920929024847602</v>
+        <v>0.0339946606794741</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>31</v>
+      </c>
+      <c r="J88" t="n">
+        <v>214</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,16 +3580,25 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2731475008.479404</v>
+        <v>3454721510.639902</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1015662282939495</v>
+        <v>0.1530543891590968</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03453504097833855</v>
+        <v>0.02536089191365993</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>16</v>
+      </c>
+      <c r="J89" t="n">
+        <v>220</v>
+      </c>
+      <c r="K89" t="n">
+        <v>101.342709663507</v>
       </c>
     </row>
     <row r="90">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1413229461.874443</v>
+        <v>2103715149.335642</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1068490674208217</v>
+        <v>0.1188403831399968</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03888697926046178</v>
+        <v>0.03396838065882542</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1488800180.124379</v>
+        <v>1666170190.196072</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1382681687270878</v>
+        <v>0.1816298565204661</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05781868449329381</v>
+        <v>0.03759609500448008</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2058163212.445185</v>
+        <v>1866038229.25026</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09630250893037162</v>
+        <v>0.07981838403247581</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0468403372566137</v>
+        <v>0.03416243576630596</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3294895665.027813</v>
+        <v>3426137118.612829</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1188523794630259</v>
+        <v>0.1255969216944175</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04489080839930309</v>
+        <v>0.04980713237816601</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>99</v>
+      </c>
+      <c r="J93" t="n">
+        <v>220</v>
+      </c>
+      <c r="K93" t="n">
+        <v>85.75079066059939</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2053191519.689353</v>
+        <v>1598878498.77228</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1156637282455804</v>
+        <v>0.1318726739719622</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03235298338323343</v>
+        <v>0.02756495473661533</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2788994226.374421</v>
+        <v>3094777332.070753</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1348687262215925</v>
+        <v>0.1078511465037459</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04500552211964187</v>
+        <v>0.04014227908441529</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2239822184.636157</v>
+        <v>2075604192.780507</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1082142127297916</v>
+        <v>0.1185766272880512</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0450929703381442</v>
+        <v>0.04190970886389516</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3864,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3707465901.212166</v>
+        <v>5014183412.33599</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1318329474706326</v>
+        <v>0.1235085816997295</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02367499857391893</v>
+        <v>0.01857969440823294</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>107</v>
+      </c>
+      <c r="J97" t="n">
+        <v>220</v>
+      </c>
+      <c r="K97" t="n">
+        <v>112.5213206472254</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2785272683.428062</v>
+        <v>2404042559.66835</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1062349016502081</v>
+        <v>0.09445497766320539</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02266075805210313</v>
+        <v>0.02923091212057542</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>53</v>
+      </c>
+      <c r="J98" t="n">
+        <v>209</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2593227937.582122</v>
+        <v>3248701558.790689</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1483626580936835</v>
+        <v>0.1357506317180157</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02444510488060315</v>
+        <v>0.02349401706754285</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>211</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3356801776.928052</v>
+        <v>3919759190.94448</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1294938809051892</v>
+        <v>0.1182406599793737</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02093750820603791</v>
+        <v>0.02000410065573155</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>92</v>
+      </c>
+      <c r="J100" t="n">
+        <v>221</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2456875596.008781</v>
+        <v>2872203562.675428</v>
       </c>
       <c r="F101" t="n">
-        <v>0.192536566256797</v>
+        <v>0.2117467433708211</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04943143759214615</v>
+        <v>0.03531799818972613</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
